--- a/HW_1/HW1 Run Times.xlsx
+++ b/HW_1/HW1 Run Times.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacktonina/Desktop/OneDrive/Third Year/DS4300/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacktonina/Documents/DS_4300/HW_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E706AC7-5EE6-DD4F-BC07-2F6EA92C1C70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0209070D-DEBE-3141-A68E-2C53DEC2D6CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{88541E7E-457F-124A-9E3A-B94E40FD8F41}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{88541E7E-457F-124A-9E3A-B94E40FD8F41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
